--- a/MIS/项目计划安排.xlsx
+++ b/MIS/项目计划安排.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\PythonDataAnalyze\MIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E258742F-0CE4-46A0-BAC4-DCFCC8F67DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488B113B-6BC2-4F1C-9B73-F336028AD897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4540" yWindow="1860" windowWidth="8400" windowHeight="13510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="103">
   <si>
     <t>标识号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +250,190 @@
   </si>
   <si>
     <t>2.2 2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低等自动化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等自动化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级自动化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审查公开资源内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传个人与项目文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加、修改、删除团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加、修改、删除项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交文件以完成任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核文件，通过/驳回任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看项目当前进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协同编辑文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看文档历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供文档备份功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必需</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统提供基本的资源内容筛选功能，例如根据关键词进行搜索和过滤。</t>
+  </si>
+  <si>
+    <t>系统能够自动识别和标记一些常见的违规内容，如敏感词汇或不当图片</t>
+  </si>
+  <si>
+    <t>系统能够利用机器学习和自然语言处理技术，自动识别和过滤大量的违规内容，提供更准确和智能的审查功能</t>
+  </si>
+  <si>
+    <t>系统提供基本的协同编辑功能，多个用户可以同时编辑同一个文档，但需要手动处理并合并冲突</t>
+  </si>
+  <si>
+    <t>指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备托管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制软件开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自行开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统能够利用机器学习和自然语言处理技术，自动识别和过滤大量的违规内容，提供更准确和智能的审查功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统提供基本的文件上传功能，用户可以手动选择文件并上传到系统中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统能够自动检测和处理一些常见的文件格式问题，如文件格式转换或校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统提供基本的团队管理功能，管理员可以手动添加、修改和删除团队信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统能够自动验证和处理一些团队管理的合规性，如检查团队名称的唯一性或成员的权限设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统能够根据团队成员的角色和权限，自动控制团队管理操作的访问和执行，提高管理流程的自动化程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统提供基本的项目管理功能，管理员可以手动添加、修改和删除项目信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统能够自动验证和处理一些项目管理的合规性，如检查项目名称的唯一性或项目状态的合法性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统提供基本的任务提交功能，用户可以手动选择文件并将其提交给相关人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统能够自动验证和处理一些常见的提交问题，如文件格式的兼容性或大小限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统能够根据任务要求和文件内容，自动检测和分析文件的完整性和质量，提供更准确和智能的提交功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统提供基本的任务审核功能，管理员可以手动审核并标记任务的通过或驳回状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统能够自动检测和处理一些常见的审核问题，如文件的完整性或合规性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统能够利用机器学习和智能算法，自动分析文件的内容和任务要求，自动判断文件是否符合要求，并自动标记任务的通过或驳回状态。系统还可以根据历史审核数据和模式识别，提供更准确和智能的审核功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统提供基本的项目进度查看功能，用户可以手动查看项目的当前进度，如已完成和待完成的任务数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统能够自动汇总和计算项目的进度信息，提供可视化的图表或指标，以便用户更直观地了解项目的当前进展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统能够根据任务的完成情况和时间进度，自动预测项目的完成时间，并提供预警和提示，帮助用户及时调整和管理项目进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统能够自动检测和解决一些常见的协同编辑冲突，例如同时修改同一段落的内容，系统会提供冲突解决工具或提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统能够自动记录文档的修改历史，包括版本号、修改时间和修改内容的摘要，用户可以方便地查看和比较不同版本的文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统能够自动跟踪和保存文档的详细修改历史，包括每个用户的具体修改操作和变更内容，用户可以精确地查看和还原文档的任意历史版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统提供基本的文档备份功能，用户可以手动选择并备份文档到指定的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统能够实现自动化的文档备份和恢复流程，包括定期自动备份文档、备份版本的管理和存储、自动检测备份完整性等。系统还可以提供灾难恢复功能，如数据灾难时自动恢复备份的文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -291,13 +477,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,17 +770,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -615,7 +804,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -625,7 +814,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -637,7 +826,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -651,7 +840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1.2</v>
       </c>
@@ -661,7 +850,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -675,7 +864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -689,7 +878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1.3</v>
       </c>
@@ -699,7 +888,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -713,7 +902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
@@ -727,7 +916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
@@ -741,7 +930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
@@ -755,7 +944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1.4</v>
       </c>
@@ -765,7 +954,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
@@ -779,7 +968,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>52</v>
       </c>
@@ -793,7 +982,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
@@ -807,7 +996,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -817,7 +1006,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2.1</v>
       </c>
@@ -831,7 +1020,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -845,7 +1034,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -859,7 +1048,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2.4</v>
       </c>
@@ -873,7 +1062,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2.5</v>
       </c>
@@ -883,7 +1072,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -897,7 +1086,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
@@ -911,7 +1100,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2.6</v>
       </c>
@@ -921,7 +1110,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -935,7 +1124,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
@@ -949,7 +1138,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2.7</v>
       </c>
@@ -963,7 +1152,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2.8</v>
       </c>
@@ -977,7 +1166,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>3</v>
       </c>
@@ -987,7 +1176,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3.1</v>
       </c>
@@ -1001,7 +1190,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>3.2</v>
       </c>
@@ -1015,7 +1204,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>3.3</v>
       </c>
@@ -1029,7 +1218,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>3.4</v>
       </c>
@@ -1043,7 +1232,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>3.5</v>
       </c>
@@ -1071,4 +1260,251 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CC675F-6E73-4ADB-BE4B-4AA5AF1598E9}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="3"/>
+    <col min="3" max="3" width="16.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="98" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="98" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="98" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="98" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="98" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="196" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="112" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="112" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="126" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="168" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535490C3-A5F5-4A14-8768-4860D06615D0}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>